--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt10b-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt10b-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Wnt10b</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>0.134388</v>
       </c>
       <c r="I2">
-        <v>0.6772649960312961</v>
+        <v>0.2628163758609765</v>
       </c>
       <c r="J2">
-        <v>0.7589069408914564</v>
+        <v>0.3020769645747168</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6896435000000001</v>
+        <v>1.905108</v>
       </c>
       <c r="N2">
-        <v>1.379287</v>
+        <v>3.810216</v>
       </c>
       <c r="O2">
-        <v>0.03192461458046126</v>
+        <v>0.07580486173280727</v>
       </c>
       <c r="P2">
-        <v>0.02377638465777991</v>
+        <v>0.05715529216076502</v>
       </c>
       <c r="Q2">
-        <v>0.030893270226</v>
+        <v>0.08534121796800001</v>
       </c>
       <c r="R2">
-        <v>0.185359621356</v>
+        <v>0.512047307808</v>
       </c>
       <c r="S2">
-        <v>0.02162142396713675</v>
+        <v>0.01992275903325883</v>
       </c>
       <c r="T2">
-        <v>0.01804406334609431</v>
+        <v>0.017265297165305</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.134388</v>
       </c>
       <c r="I3">
-        <v>0.6772649960312961</v>
+        <v>0.2628163758609765</v>
       </c>
       <c r="J3">
-        <v>0.7589069408914564</v>
+        <v>0.3020769645747168</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>9.20485</v>
       </c>
       <c r="O3">
-        <v>0.1420353600669325</v>
+        <v>0.1220879833796353</v>
       </c>
       <c r="P3">
-        <v>0.1586747749505109</v>
+        <v>0.1380777076800943</v>
       </c>
       <c r="Q3">
         <v>0.1374468202</v>
@@ -641,10 +641,10 @@
         <v>1.2370213818</v>
       </c>
       <c r="S3">
-        <v>0.09619557757203478</v>
+        <v>0.03208672132801089</v>
       </c>
       <c r="T3">
-        <v>0.1204193880543326</v>
+        <v>0.04171009481143793</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>0.134388</v>
       </c>
       <c r="I4">
-        <v>0.6772649960312961</v>
+        <v>0.2628163758609765</v>
       </c>
       <c r="J4">
-        <v>0.7589069408914564</v>
+        <v>0.3020769645747168</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.304132666666667</v>
+        <v>3.725954</v>
       </c>
       <c r="N4">
-        <v>15.912398</v>
+        <v>11.177862</v>
       </c>
       <c r="O4">
-        <v>0.2455361227459804</v>
+        <v>0.148256911310435</v>
       </c>
       <c r="P4">
-        <v>0.2743006319030685</v>
+        <v>0.1676739503331867</v>
       </c>
       <c r="Q4">
-        <v>0.237603926936</v>
+        <v>0.166907835384</v>
       </c>
       <c r="R4">
-        <v>2.138435342424</v>
+        <v>1.502170518456</v>
       </c>
       <c r="S4">
-        <v>0.1662930211970962</v>
+        <v>0.03896434412695074</v>
       </c>
       <c r="T4">
-        <v>0.2081686534421512</v>
+        <v>0.05065043795490085</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -735,10 +735,10 @@
         <v>0.134388</v>
       </c>
       <c r="I5">
-        <v>0.6772649960312961</v>
+        <v>0.2628163758609765</v>
       </c>
       <c r="J5">
-        <v>0.7589069408914564</v>
+        <v>0.3020769645747168</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.10631</v>
+        <v>6.825836</v>
       </c>
       <c r="N5">
-        <v>12.21262</v>
+        <v>13.651672</v>
       </c>
       <c r="O5">
-        <v>0.2826700944166317</v>
+        <v>0.2716022158275637</v>
       </c>
       <c r="P5">
-        <v>0.210523227435114</v>
+        <v>0.2047824327132465</v>
       </c>
       <c r="Q5">
-        <v>0.27353826276</v>
+        <v>0.305770149456</v>
       </c>
       <c r="R5">
-        <v>1.64122957656</v>
+        <v>1.834620896736</v>
       </c>
       <c r="S5">
-        <v>0.1914425603732462</v>
+        <v>0.07138151003961105</v>
       </c>
       <c r="T5">
-        <v>0.1597675385193787</v>
+        <v>0.0618600556722437</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -797,10 +797,10 @@
         <v>0.134388</v>
       </c>
       <c r="I6">
-        <v>0.6772649960312961</v>
+        <v>0.2628163758609765</v>
       </c>
       <c r="J6">
-        <v>0.7589069408914564</v>
+        <v>0.3020769645747168</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9428843333333333</v>
+        <v>4.247626666666666</v>
       </c>
       <c r="N6">
-        <v>2.828653</v>
+        <v>12.74288</v>
       </c>
       <c r="O6">
-        <v>0.04364750619069392</v>
+        <v>0.1690144349607748</v>
       </c>
       <c r="P6">
-        <v>0.0487608030753448</v>
+        <v>0.1911500632430207</v>
       </c>
       <c r="Q6">
-        <v>0.042237446596</v>
+        <v>0.19027668416</v>
       </c>
       <c r="R6">
-        <v>0.380137019364</v>
+        <v>1.71249015744</v>
       </c>
       <c r="S6">
-        <v>0.02956092810701629</v>
+        <v>0.04441976126458155</v>
       </c>
       <c r="T6">
-        <v>0.03700491189732064</v>
+        <v>0.05774203088271684</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -859,10 +859,10 @@
         <v>0.134388</v>
       </c>
       <c r="I7">
-        <v>0.6772649960312961</v>
+        <v>0.2628163758609765</v>
       </c>
       <c r="J7">
-        <v>0.7589069408914564</v>
+        <v>0.3020769645747168</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.490996</v>
+        <v>5.358931000000001</v>
       </c>
       <c r="N7">
-        <v>16.472988</v>
+        <v>16.076793</v>
       </c>
       <c r="O7">
-        <v>0.2541863019993003</v>
+        <v>0.213233592788784</v>
       </c>
       <c r="P7">
-        <v>0.2839641779781819</v>
+        <v>0.2411605538696867</v>
       </c>
       <c r="Q7">
-        <v>0.245974656816</v>
+        <v>0.2400586730760001</v>
       </c>
       <c r="R7">
-        <v>2.213771911344</v>
+        <v>2.160528057684</v>
       </c>
       <c r="S7">
-        <v>0.1721514848147659</v>
+        <v>0.05604128006856346</v>
       </c>
       <c r="T7">
-        <v>0.215502385632179</v>
+        <v>0.07284904808811242</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0213465</v>
+        <v>0.066458</v>
       </c>
       <c r="H8">
-        <v>0.042693</v>
+        <v>0.132916</v>
       </c>
       <c r="I8">
-        <v>0.3227350039687039</v>
+        <v>0.3899064806448963</v>
       </c>
       <c r="J8">
-        <v>0.2410930591085435</v>
+        <v>0.2987682071569862</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6896435000000001</v>
+        <v>1.905108</v>
       </c>
       <c r="N8">
-        <v>1.379287</v>
+        <v>3.810216</v>
       </c>
       <c r="O8">
-        <v>0.03192461458046126</v>
+        <v>0.07580486173280727</v>
       </c>
       <c r="P8">
-        <v>0.02377638465777991</v>
+        <v>0.05715529216076502</v>
       </c>
       <c r="Q8">
-        <v>0.01472147497275</v>
+        <v>0.126609667464</v>
       </c>
       <c r="R8">
-        <v>0.05888589989100001</v>
+        <v>0.5064386698560001</v>
       </c>
       <c r="S8">
-        <v>0.01030319061332451</v>
+        <v>0.02955680685401186</v>
       </c>
       <c r="T8">
-        <v>0.005732321311685599</v>
+        <v>0.01707618416840551</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.0213465</v>
+        <v>0.066458</v>
       </c>
       <c r="H9">
-        <v>0.042693</v>
+        <v>0.132916</v>
       </c>
       <c r="I9">
-        <v>0.3227350039687039</v>
+        <v>0.3899064806448963</v>
       </c>
       <c r="J9">
-        <v>0.2410930591085435</v>
+        <v>0.2987682071569862</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>9.20485</v>
       </c>
       <c r="O9">
-        <v>0.1420353600669325</v>
+        <v>0.1220879833796353</v>
       </c>
       <c r="P9">
-        <v>0.1586747749505109</v>
+        <v>0.1380777076800943</v>
       </c>
       <c r="Q9">
-        <v>0.06549711017500001</v>
+        <v>0.2039119737666667</v>
       </c>
       <c r="R9">
-        <v>0.39298266105</v>
+        <v>1.2234718426</v>
       </c>
       <c r="S9">
-        <v>0.04583978249489776</v>
+        <v>0.04760289592858621</v>
       </c>
       <c r="T9">
-        <v>0.03825538689617838</v>
+        <v>0.04125322917192818</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0213465</v>
+        <v>0.066458</v>
       </c>
       <c r="H10">
-        <v>0.042693</v>
+        <v>0.132916</v>
       </c>
       <c r="I10">
-        <v>0.3227350039687039</v>
+        <v>0.3899064806448963</v>
       </c>
       <c r="J10">
-        <v>0.2410930591085435</v>
+        <v>0.2987682071569862</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.304132666666667</v>
+        <v>3.725954</v>
       </c>
       <c r="N10">
-        <v>15.912398</v>
+        <v>11.177862</v>
       </c>
       <c r="O10">
-        <v>0.2455361227459804</v>
+        <v>0.148256911310435</v>
       </c>
       <c r="P10">
-        <v>0.2743006319030685</v>
+        <v>0.1676739503331867</v>
       </c>
       <c r="Q10">
-        <v>0.113224667969</v>
+        <v>0.247619450932</v>
       </c>
       <c r="R10">
-        <v>0.6793480078140001</v>
+        <v>1.485716705592</v>
       </c>
       <c r="S10">
-        <v>0.07924310154888414</v>
+        <v>0.05780633052033422</v>
       </c>
       <c r="T10">
-        <v>0.06613197846091734</v>
+        <v>0.05009564552797573</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0213465</v>
+        <v>0.066458</v>
       </c>
       <c r="H11">
-        <v>0.042693</v>
+        <v>0.132916</v>
       </c>
       <c r="I11">
-        <v>0.3227350039687039</v>
+        <v>0.3899064806448963</v>
       </c>
       <c r="J11">
-        <v>0.2410930591085435</v>
+        <v>0.2987682071569862</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.10631</v>
+        <v>6.825836</v>
       </c>
       <c r="N11">
-        <v>12.21262</v>
+        <v>13.651672</v>
       </c>
       <c r="O11">
-        <v>0.2826700944166317</v>
+        <v>0.2716022158275637</v>
       </c>
       <c r="P11">
-        <v>0.210523227435114</v>
+        <v>0.2047824327132465</v>
       </c>
       <c r="Q11">
-        <v>0.130348346415</v>
+        <v>0.453631408888</v>
       </c>
       <c r="R11">
-        <v>0.52139338566</v>
+        <v>1.814525635552</v>
       </c>
       <c r="S11">
-        <v>0.09122753404338554</v>
+        <v>0.1058994641086809</v>
       </c>
       <c r="T11">
-        <v>0.05075568891573528</v>
+        <v>0.06118248027898282</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0213465</v>
+        <v>0.066458</v>
       </c>
       <c r="H12">
-        <v>0.042693</v>
+        <v>0.132916</v>
       </c>
       <c r="I12">
-        <v>0.3227350039687039</v>
+        <v>0.3899064806448963</v>
       </c>
       <c r="J12">
-        <v>0.2410930591085435</v>
+        <v>0.2987682071569862</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9428843333333333</v>
+        <v>4.247626666666666</v>
       </c>
       <c r="N12">
-        <v>2.828653</v>
+        <v>12.74288</v>
       </c>
       <c r="O12">
-        <v>0.04364750619069392</v>
+        <v>0.1690144349607748</v>
       </c>
       <c r="P12">
-        <v>0.0487608030753448</v>
+        <v>0.1911500632430207</v>
       </c>
       <c r="Q12">
-        <v>0.0201272804215</v>
+        <v>0.2822887730133333</v>
       </c>
       <c r="R12">
-        <v>0.120763682529</v>
+        <v>1.69373263808</v>
       </c>
       <c r="S12">
-        <v>0.01408657808367763</v>
+        <v>0.06589982351374141</v>
       </c>
       <c r="T12">
-        <v>0.01175589117802416</v>
+        <v>0.05710956169306181</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0213465</v>
+        <v>0.066458</v>
       </c>
       <c r="H13">
-        <v>0.042693</v>
+        <v>0.132916</v>
       </c>
       <c r="I13">
-        <v>0.3227350039687039</v>
+        <v>0.3899064806448963</v>
       </c>
       <c r="J13">
-        <v>0.2410930591085435</v>
+        <v>0.2987682071569862</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,400 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.490996</v>
+        <v>5.358931000000001</v>
       </c>
       <c r="N13">
-        <v>16.472988</v>
+        <v>16.076793</v>
       </c>
       <c r="O13">
-        <v>0.2541863019993003</v>
+        <v>0.213233592788784</v>
       </c>
       <c r="P13">
-        <v>0.2839641779781819</v>
+        <v>0.2411605538696867</v>
       </c>
       <c r="Q13">
-        <v>0.117213546114</v>
+        <v>0.3561438363980001</v>
       </c>
       <c r="R13">
-        <v>0.7032812766840001</v>
+        <v>2.136863018388</v>
       </c>
       <c r="S13">
-        <v>0.08203481718453434</v>
+        <v>0.0831411597195417</v>
       </c>
       <c r="T13">
-        <v>0.06846179234600278</v>
+        <v>0.07205110631663207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.059192</v>
+      </c>
+      <c r="H14">
+        <v>0.177576</v>
+      </c>
+      <c r="I14">
+        <v>0.3472771434941271</v>
+      </c>
+      <c r="J14">
+        <v>0.3991548282682971</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.905108</v>
+      </c>
+      <c r="N14">
+        <v>3.810216</v>
+      </c>
+      <c r="O14">
+        <v>0.07580486173280727</v>
+      </c>
+      <c r="P14">
+        <v>0.05715529216076502</v>
+      </c>
+      <c r="Q14">
+        <v>0.112767152736</v>
+      </c>
+      <c r="R14">
+        <v>0.676602916416</v>
+      </c>
+      <c r="S14">
+        <v>0.02632529584553658</v>
+      </c>
+      <c r="T14">
+        <v>0.02281381082705451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.059192</v>
+      </c>
+      <c r="H15">
+        <v>0.177576</v>
+      </c>
+      <c r="I15">
+        <v>0.3472771434941271</v>
+      </c>
+      <c r="J15">
+        <v>0.3991548282682971</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.068283333333333</v>
+      </c>
+      <c r="N15">
+        <v>9.20485</v>
+      </c>
+      <c r="O15">
+        <v>0.1220879833796353</v>
+      </c>
+      <c r="P15">
+        <v>0.1380777076800943</v>
+      </c>
+      <c r="Q15">
+        <v>0.1816178270666667</v>
+      </c>
+      <c r="R15">
+        <v>1.6345604436</v>
+      </c>
+      <c r="S15">
+        <v>0.04239836612303823</v>
+      </c>
+      <c r="T15">
+        <v>0.05511438369672815</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.059192</v>
+      </c>
+      <c r="H16">
+        <v>0.177576</v>
+      </c>
+      <c r="I16">
+        <v>0.3472771434941271</v>
+      </c>
+      <c r="J16">
+        <v>0.3991548282682971</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.725954</v>
+      </c>
+      <c r="N16">
+        <v>11.177862</v>
+      </c>
+      <c r="O16">
+        <v>0.148256911310435</v>
+      </c>
+      <c r="P16">
+        <v>0.1676739503331867</v>
+      </c>
+      <c r="Q16">
+        <v>0.220546669168</v>
+      </c>
+      <c r="R16">
+        <v>1.984920022512</v>
+      </c>
+      <c r="S16">
+        <v>0.05148623666315</v>
+      </c>
+      <c r="T16">
+        <v>0.06692786685031012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.059192</v>
+      </c>
+      <c r="H17">
+        <v>0.177576</v>
+      </c>
+      <c r="I17">
+        <v>0.3472771434941271</v>
+      </c>
+      <c r="J17">
+        <v>0.3991548282682971</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.825836</v>
+      </c>
+      <c r="N17">
+        <v>13.651672</v>
+      </c>
+      <c r="O17">
+        <v>0.2716022158275637</v>
+      </c>
+      <c r="P17">
+        <v>0.2047824327132465</v>
+      </c>
+      <c r="Q17">
+        <v>0.404034884512</v>
+      </c>
+      <c r="R17">
+        <v>2.424209307072</v>
+      </c>
+      <c r="S17">
+        <v>0.09432124167927174</v>
+      </c>
+      <c r="T17">
+        <v>0.08173989676202004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.059192</v>
+      </c>
+      <c r="H18">
+        <v>0.177576</v>
+      </c>
+      <c r="I18">
+        <v>0.3472771434941271</v>
+      </c>
+      <c r="J18">
+        <v>0.3991548282682971</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.247626666666666</v>
+      </c>
+      <c r="N18">
+        <v>12.74288</v>
+      </c>
+      <c r="O18">
+        <v>0.1690144349607748</v>
+      </c>
+      <c r="P18">
+        <v>0.1911500632430207</v>
+      </c>
+      <c r="Q18">
+        <v>0.2514255176533333</v>
+      </c>
+      <c r="R18">
+        <v>2.26282965888</v>
+      </c>
+      <c r="S18">
+        <v>0.0586948501824518</v>
+      </c>
+      <c r="T18">
+        <v>0.07629847066724206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.059192</v>
+      </c>
+      <c r="H19">
+        <v>0.177576</v>
+      </c>
+      <c r="I19">
+        <v>0.3472771434941271</v>
+      </c>
+      <c r="J19">
+        <v>0.3991548282682971</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.358931000000001</v>
+      </c>
+      <c r="N19">
+        <v>16.076793</v>
+      </c>
+      <c r="O19">
+        <v>0.213233592788784</v>
+      </c>
+      <c r="P19">
+        <v>0.2411605538696867</v>
+      </c>
+      <c r="Q19">
+        <v>0.3172058437520001</v>
+      </c>
+      <c r="R19">
+        <v>2.854852593768001</v>
+      </c>
+      <c r="S19">
+        <v>0.07405115300067881</v>
+      </c>
+      <c r="T19">
+        <v>0.09626039946494221</v>
       </c>
     </row>
   </sheetData>
